--- a/配置表/A模版.xlsx
+++ b/配置表/A模版.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>装备ID范围</t>
   </si>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>使用Int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>使用string</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -247,11 +243,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>四种类型：int、string、bool、long</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要写在数据下面</t>
+    <t>这行是没有用的，可写注释</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释行</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -534,11 +530,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -651,6 +647,162 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828674</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9629774" y="790574"/>
+          <a:ext cx="2628901" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>四种类型：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>string</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>bool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>long</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不要写数据在已有的行下面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>第三行为</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,20 +1143,20 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="10" spans="2:8">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,10 +1168,10 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="4">
         <v>1</v>
       </c>
@@ -1031,10 +1183,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="4">
         <v>1</v>
       </c>
@@ -1043,10 +1195,10 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="4">
         <v>1</v>
       </c>
@@ -1055,10 +1207,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="4">
         <v>1</v>
       </c>
@@ -1067,10 +1219,10 @@
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4">
         <v>1</v>
       </c>
@@ -1079,10 +1231,10 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1091,10 +1243,10 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="4">
         <v>1</v>
       </c>
@@ -1103,10 +1255,10 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="4">
         <v>1</v>
       </c>
@@ -1115,10 +1267,10 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="4">
         <v>1</v>
       </c>
@@ -1127,10 +1279,10 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="4">
         <v>2</v>
       </c>
@@ -1139,10 +1291,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4">
         <v>3</v>
       </c>
@@ -1151,10 +1303,10 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="1">
         <v>4</v>
       </c>
@@ -1166,11 +1318,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -1180,6 +1327,11 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -1209,17 +1361,17 @@
     <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>43</v>
@@ -1229,28 +1381,28 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3" s="7"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>26</v>
@@ -1259,19 +1411,19 @@
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>23</v>
@@ -1289,10 +1441,10 @@
         <v>27</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="9" t="s">
         <v>25</v>
@@ -1303,88 +1455,82 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="13">
         <v>11111111</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="13" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="13">
         <v>11111111</v>
       </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="13" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="13">
         <v>11111111</v>
       </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="2"/>
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="13" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="13">
         <v>1111111111111110</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:7">
       <c r="B11" s="2"/>
       <c r="C11" s="3">
         <v>5</v>
@@ -1396,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="13">
         <v>1111111111111110</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:7">
       <c r="B12" s="2"/>
       <c r="C12" s="3">
         <v>6</v>
@@ -1414,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="13">
         <v>1111111111111110</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="C13" s="3">
         <v>7</v>
@@ -1432,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="13">
         <v>1111111111111110</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:7">
       <c r="B14" s="2"/>
       <c r="C14" s="3">
         <v>8</v>
@@ -1450,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="13">
         <v>1111111111111110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:7">
       <c r="B15" s="2"/>
       <c r="C15" s="3">
         <v>9</v>
@@ -1468,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="13">
         <v>1111111111111110</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:7">
       <c r="B16" s="2"/>
       <c r="C16" s="3">
         <v>10</v>
@@ -1486,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="13">
         <v>1111111111111110</v>
@@ -1496,5 +1642,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>